--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-medicationadministration-requester.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-medicationadministration-requester.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -577,9 +577,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
